--- a/src/tiempos.xlsx
+++ b/src/tiempos.xlsx
@@ -1,37 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udcgal-my.sharepoint.com/personal/j_morales_udc_es/Documents/Universidad/Segundo Cuatrimestre/Aprendizaje Automático II/Proyecto Final/anamoly_detection/src/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_DC71E11C5430921FD2FE31D2F88BF3829E674B42" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E78CC94-2EF9-4F94-95E0-B6DE3037F8E0}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>single_process_anomalies</t>
+  </si>
+  <si>
+    <t>anomalies_process_with_constructor</t>
+  </si>
+  <si>
+    <t>single_process_regression</t>
+  </si>
+  <si>
+    <t>regression_process_with_constructor</t>
+  </si>
+  <si>
+    <t>regression_process_with_pathos</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +86,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -179,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,9 +201,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,6 +253,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,56 +446,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>single_process_anomalies</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>anomalies_process_with_constructor</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>single_process_regression</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>regression_process_with_constructor</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>52.4182292000005</v>
-      </c>
-      <c r="B2" t="n">
-        <v>62.22661669999979</v>
-      </c>
-      <c r="C2" t="n">
-        <v>82.26856379999845</v>
-      </c>
-      <c r="D2" t="n">
-        <v>85.64248589999988</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>88.520241900000201</v>
+      </c>
+      <c r="B2">
+        <v>70.202744400000029</v>
+      </c>
+      <c r="C2">
+        <v>49.674880699999903</v>
+      </c>
+      <c r="D2">
+        <v>56.911891799999921</v>
+      </c>
+      <c r="E2">
+        <v>45.705046000000038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2/60</f>
+        <v>1.4753373650000035</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:E3" si="0">B2/60</f>
+        <v>1.1700457400000004</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.82791467833333177</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.94853152999999868</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.7617507666666673</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/tiempos.xlsx
+++ b/src/tiempos.xlsx
@@ -1,42 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udcgal-my.sharepoint.com/personal/j_morales_udc_es/Documents/Universidad/Segundo Cuatrimestre/Aprendizaje Automático II/Proyecto Final/anamoly_detection/src/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_DC71E11C5430921FD2FE31D2F88BF3829E674B42" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E78CC94-2EF9-4F94-95E0-B6DE3037F8E0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>single_process_anomalies</t>
   </si>
   <si>
     <t>anomalies_process_with_constructor</t>
+  </si>
+  <si>
+    <t>anomalies_process_with_pathos</t>
   </si>
   <si>
     <t>single_process_regression</t>
@@ -51,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,14 +101,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -169,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,27 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,24 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,16 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,44 +411,28 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>88.520241900000201</v>
+        <v>59.66984169999887</v>
       </c>
       <c r="B2">
-        <v>70.202744400000029</v>
+        <v>76.71179389999998</v>
       </c>
       <c r="C2">
-        <v>49.674880699999903</v>
+        <v>65.47462450000057</v>
       </c>
       <c r="D2">
-        <v>56.911891799999921</v>
+        <v>62.98738249999951</v>
       </c>
       <c r="E2">
-        <v>45.705046000000038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2/60</f>
-        <v>1.4753373650000035</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:E3" si="0">B2/60</f>
-        <v>1.1700457400000004</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0.82791467833333177</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0.94853152999999868</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>0.7617507666666673</v>
+        <v>68.05083310000009</v>
+      </c>
+      <c r="F2">
+        <v>40.84085629999936</v>
       </c>
     </row>
   </sheetData>

--- a/src/tiempos.xlsx
+++ b/src/tiempos.xlsx
@@ -14,24 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>single_process_anomalies</t>
-  </si>
-  <si>
-    <t>anomalies_process_with_constructor</t>
-  </si>
-  <si>
-    <t>anomalies_process_with_pathos</t>
-  </si>
-  <si>
-    <t>single_process_regression</t>
-  </si>
-  <si>
-    <t>regression_process_with_constructor</t>
-  </si>
-  <si>
-    <t>regression_process_with_pathos</t>
   </si>
 </sst>
 </file>
@@ -389,50 +374,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:1">
       <c r="A2">
-        <v>59.66984169999887</v>
-      </c>
-      <c r="B2">
-        <v>76.71179389999998</v>
-      </c>
-      <c r="C2">
-        <v>65.47462450000057</v>
-      </c>
-      <c r="D2">
-        <v>62.98738249999951</v>
-      </c>
-      <c r="E2">
-        <v>68.05083310000009</v>
-      </c>
-      <c r="F2">
-        <v>40.84085629999936</v>
+        <v>70.99149059999763</v>
       </c>
     </row>
   </sheetData>
